--- a/workbreakdownstructure(WBS) - TEMPLATE - V1 - ict college.xlsx
+++ b/workbreakdownstructure(WBS) - TEMPLATE - V1 - ict college.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>C</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Lazer aansluiten</t>
   </si>
   <si>
-    <t>Schijflamp aansluiten</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>Custom window border</t>
+  </si>
+  <si>
+    <t>Spiegellamp</t>
   </si>
 </sst>
 </file>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -834,10 +834,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -851,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -860,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -874,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1">
         <v>6</v>
@@ -883,7 +886,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -897,10 +900,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="1">
         <v>20</v>
+      </c>
+      <c r="H8" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -914,10 +920,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -925,16 +937,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -948,10 +963,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -965,10 +986,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -976,16 +1003,19 @@
         <v>9</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="1">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -993,13 +1023,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="1">
         <v>6</v>
@@ -1010,13 +1040,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="1">
         <v>3</v>
@@ -1077,7 +1107,7 @@
       </c>
       <c r="H24" s="2">
         <f>SUBTOTAL(9,H5:H23)</f>
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
